--- a/AP90_TestData_CreateandApplyOrUnapplyPrepayments_21C.xlsx
+++ b/AP90_TestData_CreateandApplyOrUnapplyPrepayments_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAEBA18-AAE6-4CB0-8B7F-ADDFA1EA38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BA52F-4E1A-46A6-B080-EF4C290233EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>UserName</t>
   </si>
@@ -729,38 +729,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="Z2:AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="14" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="14"/>
-    <col min="8" max="8" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.6328125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.1796875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.54296875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="14.81640625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.1796875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.453125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.453125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.81640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.26953125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.77734375" style="14" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="14"/>
+    <col min="8" max="8" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.21875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="14.77734375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.21875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.44140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.44140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.77734375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.21875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="23" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.453125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.7265625" style="14"/>
-    <col min="26" max="26" width="31.36328125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="26.81640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.54296875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="8.7265625" style="14"/>
+    <col min="24" max="24" width="26.44140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.77734375" style="14"/>
+    <col min="26" max="26" width="31.33203125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="26.77734375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -912,15 +912,9 @@
       <c r="X2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="15"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="W4" s="16"/>
@@ -929,12 +923,9 @@
       <c r="W7" s="15"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" xr:uid="{B5A35BC3-8728-484F-8097-ADC5C869FAEA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -944,12 +935,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -973,7 +964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -987,9 +978,9 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
